--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -117,18 +117,9 @@
     <t>KCl 7,4%</t>
   </si>
   <si>
-    <t>CaCl2</t>
-  </si>
-  <si>
     <t>CaGluc 10%</t>
   </si>
   <si>
-    <t>MgCl2</t>
-  </si>
-  <si>
-    <t>MgCl 10%</t>
-  </si>
-  <si>
     <t>KNaFosfaat</t>
   </si>
   <si>
@@ -232,6 +223,15 @@
   </si>
   <si>
     <t>BAXA bereiding</t>
+  </si>
+  <si>
+    <t>CaCl2 3,3%</t>
+  </si>
+  <si>
+    <t>MgCl2 10%</t>
+  </si>
+  <si>
+    <t>MgSulfaat</t>
   </si>
 </sst>
 </file>
@@ -574,7 +574,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -632,81 +632,81 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>57</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
       <c r="M4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1649,7 +1649,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.22500000000000001</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1726,12 +1726,12 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.45200000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1808,12 +1808,12 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1893,18 +1893,18 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>0.28999999999999998</v>
       </c>
       <c r="C33">
-        <v>7.4285714285714302E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1913,19 +1913,19 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>5.4285714285714298E-2</v>
+        <v>5.4300000000000001E-2</v>
       </c>
       <c r="G33">
-        <v>7.1428571428571397E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="H33">
-        <v>2.57142857142857E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="I33">
-        <v>3.4285714285714301E-2</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="J33">
-        <v>4.2857142857142903E-3</v>
+        <v>4.2900000000000004E-3</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0.28999999999999998</v>
       </c>
       <c r="C34">
-        <v>7.4285714285714302E-2</v>
+        <v>7.4300000000000005E-2</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1954,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>7.14285714285714E-3</v>
+        <v>7.1399999999999996E-3</v>
       </c>
       <c r="G34">
-        <v>1.7142857142857099E-2</v>
+        <v>1.7100000000000001E-2</v>
       </c>
       <c r="H34">
-        <v>2.57142857142857E-2</v>
+        <v>2.5700000000000001E-2</v>
       </c>
       <c r="I34">
-        <v>2.1428571428571401E-2</v>
+        <v>2.1399999999999999E-2</v>
       </c>
       <c r="J34">
-        <v>5.7142857142857099E-3</v>
+        <v>5.7099999999999998E-3</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0.32</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0.35</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0.33</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0.96</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>1.8</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>1.8</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>1.8</v>
@@ -2431,6 +2431,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -30,9 +30,6 @@
     <t>GLUCOSE 10 % FREEFLEX INFUSIEZAK 500 ML</t>
   </si>
   <si>
-    <t>glucose 12,5 %</t>
-  </si>
-  <si>
     <t>glucose 15%</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>MgSulfaat</t>
+  </si>
+  <si>
+    <t>glucose 12,5%</t>
   </si>
 </sst>
 </file>
@@ -573,9 +573,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -586,7 +584,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -632,81 +630,81 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>56</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>57</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>62</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -799,7 +797,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -838,12 +836,12 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>0.6</v>
@@ -882,12 +880,12 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -928,7 +926,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -967,12 +965,12 @@
         <v>0</v>
       </c>
       <c r="N10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1011,12 +1009,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1.2</v>
@@ -1055,12 +1053,12 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.4</v>
@@ -1099,12 +1097,12 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1.6</v>
@@ -1143,12 +1141,12 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>1.8</v>
@@ -1187,12 +1185,12 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1231,12 +1229,12 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0.2</v>
@@ -1277,7 +1275,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1318,7 +1316,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1359,7 +1357,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1398,12 +1396,12 @@
         <v>0.155</v>
       </c>
       <c r="N20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1444,7 +1442,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1485,7 +1483,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1526,7 +1524,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1567,7 +1565,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1608,7 +1606,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1649,7 +1647,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1690,7 +1688,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1731,7 +1729,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1772,7 +1770,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1813,7 +1811,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1854,7 +1852,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1893,12 +1891,12 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0.28999999999999998</v>
@@ -1939,7 +1937,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0.28999999999999998</v>
@@ -1980,7 +1978,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0.32</v>
@@ -2021,7 +2019,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>0.35</v>
@@ -2062,7 +2060,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0.33</v>
@@ -2103,7 +2101,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0.96</v>
@@ -2144,7 +2142,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2185,7 +2183,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2226,7 +2224,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2267,7 +2265,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2308,7 +2306,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43">
         <v>1.8</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44">
         <v>1.8</v>
@@ -2390,7 +2388,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>1.8</v>

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -573,7 +573,9 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1249,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1270,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.6999999999999999E-2</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1724,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.45200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1902,7 +1904,7 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="C33">
-        <v>7.4300000000000005E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1932,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="C34">
         <v>7.4300000000000005E-2</v>
@@ -1973,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>6.2899999999999998E-2</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2055,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2380,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -2421,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>6.67</v>
       </c>
       <c r="M45">
         <v>0</v>

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>glucose 5%</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>glucose 12,5%</t>
+  </si>
+  <si>
+    <t>SMOF 20%</t>
   </si>
 </sst>
 </file>
@@ -571,10 +574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,62 +712,18 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0.2</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.05</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,21 +753,21 @@
         <v>0</v>
       </c>
       <c r="N6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,21 +797,21 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.15</v>
+        <v>0.125</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,21 +841,21 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.17499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -924,20 +883,23 @@
       </c>
       <c r="M9">
         <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -965,23 +927,20 @@
       </c>
       <c r="M10">
         <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,21 +970,21 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1055,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1099,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,21 +1102,21 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1187,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1231,27 +1190,27 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>7.7499999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1272,12 +1231,15 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>7.7499999999999999E-2</v>
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1292,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.155</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1313,27 +1275,27 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.155</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>7.7499999999999999E-2</v>
+        <v>0.155</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1354,12 +1316,12 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>7.7499999999999999E-2</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1374,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.155</v>
+        <v>7.7499999999999999E-2</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1395,15 +1357,12 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.155</v>
-      </c>
-      <c r="N20" t="s">
-        <v>25</v>
+        <v>7.7499999999999999E-2</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1418,13 +1377,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.13100000000000001</v>
+        <v>0.155</v>
       </c>
       <c r="G21">
-        <v>5.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1.8E-3</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1439,12 +1398,15 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.109</v>
+        <v>0.155</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1459,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.8E-3</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1480,12 +1442,12 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1500,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1526,7 +1488,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1541,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1562,12 +1524,12 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1582,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1603,12 +1565,12 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1644,12 +1606,12 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1667,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>0.22500000000000001</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1685,12 +1647,12 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1711,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.22600000000000001</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1726,12 +1688,12 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1752,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1767,12 +1729,12 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1799,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1808,12 +1770,12 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1828,19 +1790,19 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1854,502 +1816,502 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>1.25</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1.5</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.2</v>
       </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="H33">
-        <v>2.5700000000000001E-2</v>
-      </c>
-      <c r="I33">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="J33">
-        <v>4.2900000000000004E-3</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34">
-        <v>0.3</v>
-      </c>
-      <c r="C34">
-        <v>7.4300000000000005E-2</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>7.1399999999999996E-3</v>
-      </c>
-      <c r="G34">
-        <v>1.7100000000000001E-2</v>
       </c>
       <c r="H34">
         <v>2.5700000000000001E-2</v>
       </c>
       <c r="I34">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="J34">
+        <v>4.2900000000000004E-3</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>0.3</v>
+      </c>
+      <c r="C35">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>7.1399999999999996E-3</v>
+      </c>
+      <c r="G35">
+        <v>1.7100000000000001E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="I35">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="J34">
+      <c r="J35">
         <v>5.7099999999999998E-3</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>6.2899999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.32</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.08</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>0.02</v>
       </c>
-      <c r="H35">
+      <c r="H36">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="I35">
+      <c r="I36">
         <v>2.4E-2</v>
       </c>
-      <c r="J35">
+      <c r="J36">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.35</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>0.01</v>
       </c>
-      <c r="G36">
+      <c r="G37">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H36">
+      <c r="H37">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>0.03</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>0.01</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>0.33</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G37">
+      <c r="G38">
         <v>3.1E-2</v>
       </c>
-      <c r="H37">
+      <c r="H38">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>0.96</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0.24</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="G38">
+      <c r="G39">
         <v>2.5700000000000001E-2</v>
       </c>
-      <c r="H38">
+      <c r="H39">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>1.47E-2</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
         <v>0.1</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
         <v>40</v>
       </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>46</v>
-      </c>
-      <c r="B43">
-        <v>1.8</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0.2</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
       </c>
       <c r="B44">
         <v>1.8</v>
@@ -2382,15 +2344,15 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>6.67</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="B45">
         <v>1.8</v>
@@ -2423,9 +2385,91 @@
         <v>0</v>
       </c>
       <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1.8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0.2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
         <v>6.67</v>
       </c>
-      <c r="M45">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1.8</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0.2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>6.67</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
     </row>

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -42,9 +42,6 @@
     <t>glucose 20%</t>
   </si>
   <si>
-    <t>GLUCOSE 20% 100 ML INFUSIE ZAK 100 ML</t>
-  </si>
-  <si>
     <t>glucose 25%</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>NaBic 8,4%</t>
   </si>
   <si>
-    <t>NaCl 2,9%</t>
-  </si>
-  <si>
     <t>Kacetaat</t>
   </si>
   <si>
@@ -235,6 +229,12 @@
   </si>
   <si>
     <t>SMOF 20%</t>
+  </si>
+  <si>
+    <t>GLUCOSE 20% INFUSIE ZAK 500 ML</t>
+  </si>
+  <si>
+    <t>NaCl 3%</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +589,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -635,81 +635,81 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>51</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>60</v>
-      </c>
-      <c r="M3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>65</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
       <c r="M4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -970,12 +970,12 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1014,12 +1014,12 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>1.2</v>
@@ -1058,12 +1058,12 @@
         <v>0</v>
       </c>
       <c r="N13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1.4</v>
@@ -1102,12 +1102,12 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>1.6</v>
@@ -1146,12 +1146,12 @@
         <v>0</v>
       </c>
       <c r="N15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1.8</v>
@@ -1190,12 +1190,12 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1234,12 +1234,12 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1401,12 +1401,12 @@
         <v>0.155</v>
       </c>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1816,7 +1816,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1896,12 +1896,12 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>0.28999999999999998</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>0.3</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0.32</v>
@@ -2024,7 +2024,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>0.35</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0.33</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0.96</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2188,7 +2188,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1.8</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45">
         <v>1.8</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1.8</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>1.8</v>

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -11,7 +11,10 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="Tbl_Admin_ParEnt">Tbl_Admin_ParEnt!$A$6:$N$47</definedName>
+  </definedNames>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -577,7 +580,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A6" sqref="A6:N47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db/GlobParEnt.xlsx
+++ b/db/GlobParEnt.xlsx
@@ -114,9 +114,6 @@
     <t>CaGluc 10%</t>
   </si>
   <si>
-    <t>KNaFosfaat</t>
-  </si>
-  <si>
     <t>albumine 20%</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>NaCl 3%</t>
+  </si>
+  <si>
+    <t>Glycophos</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
   <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:N47"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -638,81 +638,81 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>58</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>59</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" t="s">
-        <v>64</v>
-      </c>
       <c r="M4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -844,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1532,7 +1532,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1834,16 +1834,16 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1899,12 +1899,12 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>0.28999999999999998</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>0.3</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0.32</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0.35</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0.33</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0.96</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44">
         <v>1.8</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45">
         <v>1.8</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1.8</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1.8</v>
